--- a/ActorsMap/01Data/Processed/DataModeler.xlsx
+++ b/ActorsMap/01Data/Processed/DataModeler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpkamakura\Documents\01GCOOS\GCOOS_MHW\ActorsMap\01Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{31C69B1A-070F-43C8-9DC3-18556B937CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A2B941-F3BE-4ABB-A6D2-38DBCD788849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="600" windowWidth="16644" windowHeight="12744" xr2:uid="{9ED6D5CE-5060-4C57-982D-97A7F24FD346}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9ED6D5CE-5060-4C57-982D-97A7F24FD346}"/>
   </bookViews>
   <sheets>
     <sheet name="DataModeler_Info" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Will be meeting in November, will be at Education &amp; Outreach Committee meeting in December</t>
   </si>
   <si>
-    <t>Ryan Bare, Stephanie Piper</t>
-  </si>
-  <si>
     <t>HARC</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>Have not heard a response but emailed. Working on ForUsTree tree planting project and collaborating on Houston heat mapping project</t>
-  </si>
-  <si>
     <t>Dan Fu</t>
   </si>
   <si>
@@ -350,6 +344,12 @@
   </si>
   <si>
     <t>EID</t>
+  </si>
+  <si>
+    <t>Ryan Bare, Stephanie Piper, Ebrahim Eslami</t>
+  </si>
+  <si>
+    <t>Eslami works on modeling air quality, Bare is working on the forUsTree project, and Piper is doing work on urban heat</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1215,14 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1340,22 +1344,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="1">
-        <v>45580</v>
+        <v>45642</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1363,22 +1367,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>45589</v>
+        <v>45632</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1386,22 +1390,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="1">
         <v>45595</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1409,22 +1413,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>45594</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1432,22 +1436,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="1">
         <v>45622</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1455,22 +1459,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>45567</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1478,22 +1482,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="1">
         <v>45588</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1501,22 +1505,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
       </c>
       <c r="F13" s="2">
         <v>45611</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1524,22 +1528,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45635</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45595</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1547,22 +1551,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>45607</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1570,22 +1574,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1593,22 +1597,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1616,22 +1620,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
       </c>
       <c r="F18" s="1">
         <v>45617</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1651,13 +1655,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1668,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1679,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1690,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1701,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1712,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1723,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1734,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1756,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1767,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1778,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1789,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1800,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1811,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1822,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1833,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1844,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1855,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1866,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1877,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1888,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1899,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1910,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1921,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1932,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1943,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1954,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1965,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1976,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1987,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1998,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2009,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2020,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2031,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2042,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2053,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2064,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2075,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,7 +2090,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2097,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2108,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2119,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2130,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2141,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2152,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2163,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2174,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2185,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2196,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2207,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2218,7 +2222,7 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2229,7 +2233,7 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2240,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2251,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2262,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2273,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2284,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2295,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2306,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2317,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2328,7 +2332,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2339,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2359,13 +2363,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2376,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2387,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2409,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2453,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2464,7 +2468,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,7 +2490,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,7 +2512,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2519,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2530,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2541,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2552,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2563,7 +2567,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2585,7 +2589,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2596,7 +2600,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EC9986-6AAE-48F1-821B-DD6297CC935B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -2616,13 +2620,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2633,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2644,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2655,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2666,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2677,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2688,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2699,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2710,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2721,7 +2725,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2743,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2754,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2765,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2776,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2787,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2798,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2809,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2820,7 +2824,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2831,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2842,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,7 +2857,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2864,7 +2868,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2875,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2886,7 +2890,7 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2897,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2908,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2919,7 +2923,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2930,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
